--- a/data/case1/14/P2_13.xlsx
+++ b/data/case1/14/P2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.10393850992561227</v>
+        <v>0.10122516985340724</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994799979675</v>
+        <v>-0.0099999994882757903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999994830876062</v>
+        <v>-0.0089999994910421321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399199289767196</v>
+        <v>0.28399404951267115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999994971686732</v>
+        <v>-0.0059999994994042183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999994771366971</v>
+        <v>-0.03851028622023378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999380583944</v>
+        <v>-0.019999999402301682</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999373538024</v>
+        <v>-0.019999999396460133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999994590365091</v>
+        <v>-0.0059999994632420339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0072706394668102803</v>
+        <v>-0.0059999994554829073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999460612969</v>
+        <v>-0.0044999994625847251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994485853136</v>
+        <v>-0.0059999994529409406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994408359569</v>
+        <v>-0.0059999994449873029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999398226713</v>
+        <v>-0.01199999941051022</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994369759335</v>
+        <v>-0.0059999994410606661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994355450781</v>
+        <v>-0.005999999439517012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994338841844</v>
+        <v>-0.0059999994374271282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0036261371860204505</v>
+        <v>-0.008999999420990612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999994864862209</v>
+        <v>-0.0089999994933167571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994818548146</v>
+        <v>-0.0089999994892711044</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999994811718054</v>
+        <v>-0.0089999994887470791</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999480627352</v>
+        <v>-0.0089999994884486512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999994761935653</v>
+        <v>-0.0089999994873046774</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.080735786708662438</v>
+        <v>-0.041999999302794855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999236508323</v>
+        <v>-0.041999999299422441</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999994757227171</v>
+        <v>-0.0059999994783517252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994735493445</v>
+        <v>-0.0059999994766650744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994646009469</v>
+        <v>-0.0059999994688757496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999418174312</v>
+        <v>-0.011999999431608899</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0062136010283206922</v>
+        <v>-0.0092085901982557061</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999390006735</v>
+        <v>-0.01074312532871069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999348796372</v>
+        <v>-0.020999999376665635</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994494308595</v>
+        <v>-0.0059999994570194559</v>
       </c>
     </row>
   </sheetData>
